--- a/tools/II-901.xlsx
+++ b/tools/II-901.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\PythonProjectDORA\RTS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AE5C17EA-D4C3-4F1B-B0E3-3837E181637A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{467DCD92-515E-472E-AD70-1F3EAC4C780B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="36360" yWindow="1470" windowWidth="20730" windowHeight="18945" xr2:uid="{11285C80-5500-A840-A617-F13FB1A0E06E}"/>
+    <workbookView xWindow="46725" yWindow="1935" windowWidth="26835" windowHeight="18945" xr2:uid="{11285C80-5500-A840-A617-F13FB1A0E06E}"/>
   </bookViews>
   <sheets>
     <sheet name="library_content" sheetId="1" r:id="rId1"/>
     <sheet name="mesures" sheetId="2" r:id="rId2"/>
+    <sheet name="scores" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">mesures!$A$1:$D$79</definedName>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="198">
   <si>
     <t>library_urn</t>
   </si>
@@ -629,12 +630,45 @@
   <si>
     <t>II n°901/SGDSN/ANSSI Mise en œuvre d'un SI sensible ou DR - Liste de vérifications</t>
   </si>
+  <si>
+    <t>score</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>Totalement mis en œuvre</t>
+  </si>
+  <si>
+    <t>Partiellement mis en œuvre</t>
+  </si>
+  <si>
+    <t>Pas commencé</t>
+  </si>
+  <si>
+    <t>Problème !</t>
+  </si>
+  <si>
+    <t>n.a.</t>
+  </si>
+  <si>
+    <t>scores</t>
+  </si>
+  <si>
+    <t>framework_min_score</t>
+  </si>
+  <si>
+    <t>framework_max_score</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -676,13 +710,25 @@
       <name val="Arial Narrow"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial Narrow"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -714,7 +760,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
@@ -736,13 +782,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1059,10 +1107,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78250491-B3D9-A343-9B89-B19F34DC2778}">
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1190,23 +1238,48 @@
       <c r="C13" s="1"/>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
+      <c r="A14" s="13" t="s">
+        <v>196</v>
+      </c>
+      <c r="B14" s="3">
+        <v>1</v>
+      </c>
+      <c r="C14" s="1"/>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="13" t="s">
+        <v>197</v>
+      </c>
+      <c r="B15" s="3">
+        <v>5</v>
+      </c>
+      <c r="C15" s="1"/>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B16" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C16" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="1"/>
-      <c r="B15" s="2"/>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="1"/>
-      <c r="B16" s="2"/>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="C17" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="1"/>
+      <c r="B18" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1217,7 +1290,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48DF4BF9-A4A1-914D-BA4F-FB92B7FDECB9}">
   <dimension ref="A1:D79"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView topLeftCell="A22" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
@@ -2298,4 +2371,73 @@
   <autoFilter ref="A1:D79" xr:uid="{48DF4BF9-A4A1-914D-BA4F-FB92B7FDECB9}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AFA878A-AF78-4844-B107-C55248941414}">
+  <dimension ref="A1:C6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="19.875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B1" t="s">
+        <v>188</v>
+      </c>
+      <c r="C1" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="12" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>194</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>